--- a/parameter_files/v3/sigmas.xlsx
+++ b/parameter_files/v3/sigmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B139C70D-35E3-4011-AAA8-433233124E38}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94BE730-B067-4DAD-8B59-9C53DEA7136F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,10 +1219,10 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1369,7 +1369,9 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="Z2" s="2">
+        <v>2</v>
+      </c>
       <c r="AA2">
         <v>2</v>
       </c>
@@ -1807,6 +1809,12 @@
       <c r="A24" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
